--- a/results/FrequencyTables/27278725_CA2.xlsx
+++ b/results/FrequencyTables/27278725_CA2.xlsx
@@ -465,73 +465,73 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.00353462736640307</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.985202492211838</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.020968128444764</v>
       </c>
       <c r="E2">
-        <v>0.01</v>
+        <v>0.00365444524323029</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.000299544692068057</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0.990534387730649</v>
       </c>
       <c r="H2">
-        <v>0.02</v>
+        <v>0.000299544692068057</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.000299544692068057</v>
       </c>
       <c r="J2">
-        <v>0.01</v>
+        <v>0.0439731607955907</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>5.99089384136113e-05</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.00353462736640307</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.00143781452192667</v>
       </c>
       <c r="N2">
-        <v>0.64</v>
+        <v>0.69260723699976</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.00101845195303139</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.00569134914929307</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.000179726815240834</v>
       </c>
       <c r="R2">
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.82</v>
+        <v>0.986220944164869</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>5.99089384136113e-05</v>
       </c>
       <c r="U2">
         <v>0</v>
       </c>
       <c r="V2">
-        <v>1</v>
+        <v>0.972082434699257</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>0.0101845195303139</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>0.00658998322549724</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -539,73 +539,73 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.995866283249461</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.0101246105919003</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>0.00832734243949197</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>0.000299544692068057</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.995446920680566</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.000299544692068057</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.000239635753654445</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.000119817876827223</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.000958543014617781</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.996105919003115</v>
       </c>
       <c r="L3">
-        <v>0.99</v>
+        <v>0.99568655643422</v>
       </c>
       <c r="M3">
-        <v>0.09</v>
+        <v>0.0224059429666906</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.001078360891445</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.0328900071890726</v>
       </c>
       <c r="P3">
-        <v>0.01</v>
+        <v>0.0307931943445962</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>0.00143781452192667</v>
       </c>
       <c r="R3">
-        <v>1</v>
+        <v>0.999640546369518</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.00245626647495806</v>
       </c>
       <c r="T3">
-        <v>1</v>
+        <v>0.996645099448838</v>
       </c>
       <c r="U3">
-        <v>1</v>
+        <v>0.999760364246346</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>0.0228852144739995</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>0.000119817876827223</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>0.000539180445722502</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -613,73 +613,73 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>0.000479271507308891</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.00401389887371196</v>
       </c>
       <c r="D4">
-        <v>0.08</v>
+        <v>0.166127486220944</v>
       </c>
       <c r="E4">
-        <v>0.99</v>
+        <v>0.995746465372634</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>0.000179726815240834</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.00814761562425114</v>
       </c>
       <c r="H4">
-        <v>0.98</v>
+        <v>0.999281092739037</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.999580637431105</v>
       </c>
       <c r="J4">
-        <v>0.99</v>
+        <v>0.953989935298347</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.000239635753654445</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.000119817876827223</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.00653007428708363</v>
       </c>
       <c r="N4">
-        <v>0.36</v>
+        <v>0.300503235082674</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>5.99089384136113e-05</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.00820752456266475</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>0.998142822909178</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>5.99089384136113e-05</v>
       </c>
       <c r="S4">
-        <v>0.18</v>
+        <v>0.00976515696141864</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.000119817876827223</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>0.000119817876827223</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>0.00383417205847112</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>0.989456026839204</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0.992751018451953</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -687,25 +687,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>5.99089384136113e-05</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.000359453630481668</v>
       </c>
       <c r="D5">
-        <v>0.92</v>
+        <v>0.799424874191229</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>0.000179726815240834</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.00377426312005751</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.000479271507308891</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.000179726815240834</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -714,46 +714,46 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.00353462736640307</v>
       </c>
       <c r="L5">
-        <v>0.01</v>
+        <v>0.000419362568895279</v>
       </c>
       <c r="M5">
-        <v>0.91</v>
+        <v>0.968607716271268</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>5.99089384136113e-05</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.964653726335969</v>
       </c>
       <c r="P5">
-        <v>0.99</v>
+        <v>0.953810208483106</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>0.000119817876827223</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>0.000299544692068057</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.000539180445722502</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>0.00305535585909418</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>0.000119817876827223</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>0.000838725137790558</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>5.99089384136113e-05</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>0.000119817876827223</v>
       </c>
     </row>
   </sheetData>
